--- a/Expenses03.xlsx
+++ b/Expenses03.xlsx
@@ -14,36 +14,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>USERNAME</t>
   </si>
   <si>
-    <t>DEAL COUNT</t>
-  </si>
-  <si>
-    <t>COMPANY</t>
-  </si>
-  <si>
-    <t>GRAND TOTAL</t>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>DATE AND TIME</t>
+  </si>
+  <si>
+    <t>PHONE NO</t>
+  </si>
+  <si>
+    <t>DURATION</t>
   </si>
   <si>
     <t>Admin CIOC</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>CIOC FMCG Pvt Ltd</t>
-  </si>
-  <si>
-    <t>20060</t>
-  </si>
-  <si>
-    <t>Purity Supreme</t>
-  </si>
-  <si>
-    <t>31841184</t>
+    <t>2018-06-15T14:24:41.422604Z</t>
+  </si>
+  <si>
+    <t>{"duration":10}</t>
+  </si>
+  <si>
+    <t>2018-06-15T14:27:00.767220Z</t>
+  </si>
+  <si>
+    <t>2018-06-15T14:28:23.003478Z</t>
+  </si>
+  <si>
+    <t>2018-06-18T12:22:04.937476Z</t>
+  </si>
+  <si>
+    <t>{"duration":15}</t>
+  </si>
+  <si>
+    <t>2018-06-18T12:25:46.626017Z</t>
+  </si>
+  <si>
+    <t>2018-06-18T12:26:14.441534Z</t>
+  </si>
+  <si>
+    <t>2018-06-18T12:27:42.638023Z</t>
+  </si>
+  <si>
+    <t>Veronica Woods</t>
+  </si>
+  <si>
+    <t>2018-06-18T12:33:45.599160Z</t>
+  </si>
+  <si>
+    <t>07051612974</t>
+  </si>
+  <si>
+    <t>{"duration":16}</t>
+  </si>
+  <si>
+    <t>2018-06-18T12:36:25.330879Z</t>
+  </si>
+  <si>
+    <t>Robert H. Peebles</t>
+  </si>
+  <si>
+    <t>2018-06-18T12:55:14.117588Z</t>
+  </si>
+  <si>
+    <t>07950492595</t>
   </si>
 </sst>
 </file>
@@ -384,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +432,7 @@
     <col min="201" max="201" width="200.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -406,33 +445,136 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Expenses03.xlsx
+++ b/Expenses03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>USERNAME</t>
   </si>
@@ -29,60 +29,6 @@
   </si>
   <si>
     <t>DURATION</t>
-  </si>
-  <si>
-    <t>Admin CIOC</t>
-  </si>
-  <si>
-    <t>2018-06-15T14:24:41.422604Z</t>
-  </si>
-  <si>
-    <t>{"duration":10}</t>
-  </si>
-  <si>
-    <t>2018-06-15T14:27:00.767220Z</t>
-  </si>
-  <si>
-    <t>2018-06-15T14:28:23.003478Z</t>
-  </si>
-  <si>
-    <t>2018-06-18T12:22:04.937476Z</t>
-  </si>
-  <si>
-    <t>{"duration":15}</t>
-  </si>
-  <si>
-    <t>2018-06-18T12:25:46.626017Z</t>
-  </si>
-  <si>
-    <t>2018-06-18T12:26:14.441534Z</t>
-  </si>
-  <si>
-    <t>2018-06-18T12:27:42.638023Z</t>
-  </si>
-  <si>
-    <t>Veronica Woods</t>
-  </si>
-  <si>
-    <t>2018-06-18T12:33:45.599160Z</t>
-  </si>
-  <si>
-    <t>07051612974</t>
-  </si>
-  <si>
-    <t>{"duration":16}</t>
-  </si>
-  <si>
-    <t>2018-06-18T12:36:25.330879Z</t>
-  </si>
-  <si>
-    <t>Robert H. Peebles</t>
-  </si>
-  <si>
-    <t>2018-06-18T12:55:14.117588Z</t>
-  </si>
-  <si>
-    <t>07950492595</t>
   </si>
 </sst>
 </file>
@@ -423,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,134 +395,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
